--- a/excel/finished/wg7#高炉/出铁统计报表/7高炉炉渣碱度合格率精益统计表.xlsx
+++ b/excel/finished/wg7#高炉/出铁统计报表/7高炉炉渣碱度合格率精益统计表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\template\7高炉\炉内报表\cn_zh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489DD495-0BCF-40F8-A2D8-DC4CFAE49519}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06748F2-8355-4209-94FC-BAE49FF325A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="-120" windowWidth="27720" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -209,9 +209,6 @@
   </si>
   <si>
     <t>月度分析</t>
-  </si>
-  <si>
-    <t>八高炉碱度合格率精益管理小组年推进表（%当前年份%）</t>
   </si>
   <si>
     <t>月份</t>
@@ -443,6 +440,10 @@
     <t>七高炉炉渣碱度合格率精益管理小组月推进表（%当前月份%）</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
+  <si>
+    <t>七高炉碱度合格率精益管理小组年推进表（%当前年份%）</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1209,6 +1210,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1248,12 +1267,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1262,18 +1275,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3034,32 +3035,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82"/>
+      <c r="B1" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
     </row>
     <row r="2" spans="2:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="6" t="s">
@@ -3074,103 +3075,103 @@
       <c r="E2" s="28"/>
     </row>
     <row r="3" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="77" t="s">
+      <c r="I3" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77" t="s">
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77" t="s">
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="83" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="67" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="75"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="78" t="s">
+      <c r="B4" s="81"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78" t="s">
+      <c r="J4" s="66"/>
+      <c r="K4" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78" t="s">
+      <c r="N4" s="66"/>
+      <c r="O4" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78" t="s">
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78" t="s">
+      <c r="R4" s="66"/>
+      <c r="S4" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78" t="s">
+      <c r="T4" s="66"/>
+      <c r="U4" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78" t="s">
+      <c r="V4" s="66"/>
+      <c r="W4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="84"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="68"/>
     </row>
     <row r="5" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="81"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="85"/>
       <c r="I5" s="29" t="s">
         <v>20</v>
       </c>
@@ -3219,10 +3220,10 @@
       <c r="X5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="Y5" s="84"/>
+      <c r="Y5" s="68"/>
     </row>
     <row r="6" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="76"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="30" t="s">
         <v>22</v>
       </c>
@@ -3287,7 +3288,7 @@
       <c r="X6" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="Y6" s="85"/>
+      <c r="Y6" s="69"/>
     </row>
     <row r="7" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="33"/>
@@ -5589,230 +5590,239 @@
       <c r="Y42" s="63"/>
     </row>
     <row r="43" spans="2:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="73" t="s">
+      <c r="B43" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="73"/>
-      <c r="J43" s="73"/>
-      <c r="K43" s="73"/>
-      <c r="L43" s="73"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="79"/>
+      <c r="J43" s="79"/>
+      <c r="K43" s="79"/>
+      <c r="L43" s="79"/>
     </row>
     <row r="44" spans="2:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="64"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="66"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="72"/>
     </row>
     <row r="45" spans="2:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="67"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="68"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="69"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="74"/>
+      <c r="K45" s="74"/>
+      <c r="L45" s="75"/>
     </row>
     <row r="46" spans="2:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="67"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="69"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="74"/>
+      <c r="L46" s="75"/>
     </row>
     <row r="47" spans="2:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="67"/>
-      <c r="C47" s="68"/>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="69"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="74"/>
+      <c r="L47" s="75"/>
     </row>
     <row r="48" spans="2:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="67"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="68"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="68"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="69"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="74"/>
+      <c r="L48" s="75"/>
     </row>
     <row r="49" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="67"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="69"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="74"/>
+      <c r="L49" s="75"/>
     </row>
     <row r="50" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="67"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="69"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="75"/>
     </row>
     <row r="51" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="67"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="68"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="68"/>
-      <c r="I51" s="68"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="68"/>
-      <c r="L51" s="69"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="74"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="74"/>
+      <c r="L51" s="75"/>
     </row>
     <row r="52" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="67"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="68"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="68"/>
-      <c r="I52" s="68"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="68"/>
-      <c r="L52" s="69"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="74"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="74"/>
+      <c r="L52" s="75"/>
     </row>
     <row r="53" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="67"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="68"/>
-      <c r="E53" s="68"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="68"/>
-      <c r="I53" s="68"/>
-      <c r="J53" s="68"/>
-      <c r="K53" s="68"/>
-      <c r="L53" s="69"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="74"/>
+      <c r="J53" s="74"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="75"/>
     </row>
     <row r="54" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="67"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="68"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="68"/>
-      <c r="H54" s="68"/>
-      <c r="I54" s="68"/>
-      <c r="J54" s="68"/>
-      <c r="K54" s="68"/>
-      <c r="L54" s="69"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="74"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="74"/>
+      <c r="J54" s="74"/>
+      <c r="K54" s="74"/>
+      <c r="L54" s="75"/>
     </row>
     <row r="55" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="67"/>
-      <c r="C55" s="68"/>
-      <c r="D55" s="68"/>
-      <c r="E55" s="68"/>
-      <c r="F55" s="68"/>
-      <c r="G55" s="68"/>
-      <c r="H55" s="68"/>
-      <c r="I55" s="68"/>
-      <c r="J55" s="68"/>
-      <c r="K55" s="68"/>
-      <c r="L55" s="69"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="74"/>
+      <c r="I55" s="74"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="74"/>
+      <c r="L55" s="75"/>
     </row>
     <row r="56" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="67"/>
-      <c r="C56" s="68"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="68"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="68"/>
-      <c r="K56" s="68"/>
-      <c r="L56" s="69"/>
+      <c r="B56" s="73"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="74"/>
+      <c r="H56" s="74"/>
+      <c r="I56" s="74"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="74"/>
+      <c r="L56" s="75"/>
     </row>
     <row r="57" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="67"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="69"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="74"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="74"/>
+      <c r="J57" s="74"/>
+      <c r="K57" s="74"/>
+      <c r="L57" s="75"/>
     </row>
     <row r="58" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="67"/>
-      <c r="C58" s="68"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="68"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="68"/>
-      <c r="L58" s="69"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="74"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="74"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="74"/>
+      <c r="L58" s="75"/>
     </row>
     <row r="59" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="70"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="71"/>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="71"/>
-      <c r="J59" s="71"/>
-      <c r="K59" s="71"/>
-      <c r="L59" s="72"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="77"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="77"/>
+      <c r="I59" s="77"/>
+      <c r="J59" s="77"/>
+      <c r="K59" s="77"/>
+      <c r="L59" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B44:L59"/>
+    <mergeCell ref="B43:L43"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:H5"/>
     <mergeCell ref="B1:Y1"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="O3:V3"/>
@@ -5826,15 +5836,6 @@
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="Y3:Y6"/>
-    <mergeCell ref="B44:L59"/>
-    <mergeCell ref="B43:L43"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:H5"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5848,7 +5849,7 @@
   <dimension ref="A1:XFD18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B18"/>
+      <selection activeCell="B1" sqref="B1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5864,7 +5865,7 @@
   <sheetData>
     <row r="1" spans="1:28 16383:16384" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="86" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C1" s="86"/>
       <c r="D1" s="86"/>
@@ -5929,22 +5930,22 @@
     <row r="3" spans="1:28 16383:16384" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3"/>
       <c r="B3" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="XFC3"/>
       <c r="XFD3"/>
@@ -5972,15 +5973,15 @@
       <c r="A5"/>
       <c r="B5" s="12"/>
       <c r="C5" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>41</v>
       </c>
       <c r="XFC5"/>
       <c r="XFD5"/>
@@ -5988,7 +5989,7 @@
     <row r="6" spans="1:28 16383:16384" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="17" t="str">
@@ -6007,7 +6008,7 @@
     <row r="7" spans="1:28 16383:16384" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="17" t="str">
@@ -6026,7 +6027,7 @@
     <row r="8" spans="1:28 16383:16384" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="17" t="str">
@@ -6045,7 +6046,7 @@
     <row r="9" spans="1:28 16383:16384" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="17" t="str">
@@ -6064,7 +6065,7 @@
     <row r="10" spans="1:28 16383:16384" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="17" t="str">
@@ -6083,7 +6084,7 @@
     <row r="11" spans="1:28 16383:16384" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="17" t="str">
@@ -6102,7 +6103,7 @@
     <row r="12" spans="1:28 16383:16384" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="17" t="str">
@@ -6121,7 +6122,7 @@
     <row r="13" spans="1:28 16383:16384" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="17" t="str">
@@ -6140,7 +6141,7 @@
     <row r="14" spans="1:28 16383:16384" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="17" t="str">
@@ -6159,7 +6160,7 @@
     <row r="15" spans="1:28 16383:16384" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="17" t="str">
@@ -6178,7 +6179,7 @@
     <row r="16" spans="1:28 16383:16384" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="17" t="str">
@@ -6197,7 +6198,7 @@
     <row r="17" spans="1:7 16383:16384" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="17" t="str">
@@ -6216,7 +6217,7 @@
     <row r="18" spans="1:7 16383:16384" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="21" t="str">
         <f>IF(ISERROR(AVERAGE(C6:C17)),"",AVERAGE(C6:C17))</f>
@@ -6248,7 +6249,8 @@
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6267,7 +6269,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1">
         <v>7</v>
